--- a/06-junio/3_FENIX/FENIX.xlsx
+++ b/06-junio/3_FENIX/FENIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\3_FENIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\3_FENIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3DA0B-ACAB-4627-BCD3-9F73AA8CAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7DC85-0678-4464-AEAB-E628C1957D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="19140" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>FENIX</t>
   </si>
@@ -44,12 +44,6 @@
     <t>SMITH J</t>
   </si>
   <si>
-    <t>DIEZ</t>
-  </si>
-  <si>
-    <t>MAZZA</t>
-  </si>
-  <si>
     <t>PLANILLA DE CALCULO DDJJ931</t>
   </si>
   <si>
@@ -77,16 +71,7 @@
     <t>OS</t>
   </si>
   <si>
-    <t>CACHO</t>
-  </si>
-  <si>
-    <t>ALVARO</t>
-  </si>
-  <si>
-    <t>SMITH</t>
-  </si>
-  <si>
-    <t>ABRIL 2025</t>
+    <t>JUNIO Y SAC 2025</t>
   </si>
 </sst>
 </file>
@@ -117,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,13 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,27 +149,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +505,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -552,11 +532,20 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="16">
+        <v>50827.17</v>
+      </c>
+      <c r="F5" s="16">
+        <v>49970.21</v>
+      </c>
+      <c r="G5" s="16">
+        <f>+E5-F5</f>
+        <v>856.95999999999913</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <v>1665673.85</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -564,503 +553,449 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1617281.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f>+B7+C7</f>
+        <v>1617281.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>76957.440000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f>+E7+F7</f>
+        <v>76957.440000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <f>+D7+G7</f>
+        <v>1694239.04</v>
+      </c>
+      <c r="I7" s="5">
+        <f>+H7</f>
+        <v>1694239.04</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:I10" si="0">SUM(B7:B9)</f>
+        <v>1617281.6</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:H10" si="1">SUM(C7:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>1617281.6</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>76957.440000000002</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>76957.440000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>1694239.04</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>1694239.04</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="16">
+        <v>50827.17</v>
+      </c>
+      <c r="F12" s="16">
+        <v>49970.21</v>
+      </c>
+      <c r="G12" s="16">
+        <f>+E12-F12</f>
+        <v>856.95999999999913</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <v>2512793.37</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
-        <v>1531027</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f>+B7+C7</f>
-        <v>1531027</v>
-      </c>
-      <c r="E7" s="6">
-        <v>135154.12</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f>+E7+F7</f>
-        <v>135154.12</v>
-      </c>
-      <c r="H7" s="6">
-        <f>+D7+G7</f>
-        <v>1666181.1200000001</v>
-      </c>
-      <c r="I7" s="6">
-        <f>+H7</f>
-        <v>1666181.1200000001</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2170674.9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" ref="D8:D9" si="0">+B8+C8</f>
-        <v>2170674.9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2032187.39</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G9" si="1">+E8+F8</f>
-        <v>2032187.39</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:H9" si="2">+D8+G8</f>
-        <v>4202862.29</v>
-      </c>
-      <c r="I8" s="6">
-        <f>+H8</f>
-        <v>4202862.29</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>945329.3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>945329.3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>884336</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>884336</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="2"/>
-        <v>1829665.3</v>
-      </c>
-      <c r="I9" s="6">
-        <f>+H9*2</f>
-        <v>3659330.6</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7">
-        <f t="shared" ref="B10:I10" si="3">SUM(B7:B9)</f>
-        <v>4647031.2</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" ref="C10:H10" si="4">SUM(C7:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="4"/>
-        <v>4647031.2</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="4"/>
-        <v>3051677.51</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="4"/>
-        <v>3051677.51</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="4"/>
-        <v>7698708.71</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="B14" s="13">
+        <v>1617281.6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>808640.8</v>
+      </c>
+      <c r="D14" s="13">
+        <f>+B14+C14</f>
+        <v>2425922.4000000004</v>
+      </c>
+      <c r="E14" s="13">
+        <v>76957.440000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <v>38478.720000000001</v>
+      </c>
+      <c r="G14" s="13">
+        <f>+E14+F14</f>
+        <v>115436.16</v>
+      </c>
+      <c r="H14" s="13">
+        <f>+D14+G14</f>
+        <v>2541358.5600000005</v>
+      </c>
+      <c r="I14" s="13">
+        <f>+H14</f>
+        <v>2541358.5600000005</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" ref="B17:I17" si="2">SUM(B14:B16)</f>
+        <v>1617281.6</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:H17" si="3">SUM(C14:C16)</f>
+        <v>808640.8</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="3"/>
-        <v>9528374.0099999998</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
-        <v>1117391.55</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>442</v>
-      </c>
-      <c r="B15" s="12">
-        <v>490</v>
-      </c>
-      <c r="C15" s="12">
-        <v>407342.98</v>
-      </c>
-      <c r="D15" s="12">
-        <f>+C15*2</f>
-        <v>814685.96</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <v>67566.78</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12">
-        <v>296032.75</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+        <v>2425922.4000000004</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="3"/>
+        <v>76957.440000000002</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="3"/>
+        <v>38478.720000000001</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="3"/>
+        <v>115436.16</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="3"/>
+        <v>2541358.5600000005</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" ref="I17:J17" si="4">SUM(I14:I16)</f>
+        <v>2541358.5600000005</v>
+      </c>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1444017.2</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1684556.71</v>
-      </c>
-      <c r="C19" s="12">
-        <v>878754.91</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1582163.95</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12">
-        <v>50768.98</v>
-      </c>
-      <c r="D21" s="12">
-        <v>48108.800000000003</v>
-      </c>
-      <c r="E21" s="12">
-        <f>+C21-D21</f>
-        <v>2660.1800000000003</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12">
-        <v>45317.67</v>
-      </c>
-      <c r="D22" s="12">
-        <v>42993.86</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" ref="E22:E23" si="5">+C22-D22</f>
-        <v>2323.8099999999977</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="13">
-        <v>49985.43</v>
-      </c>
-      <c r="D23" s="13">
-        <v>48480.43</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="5"/>
-        <v>1505</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="12">
-        <v>38177.199999999997</v>
-      </c>
-      <c r="D25" s="12">
-        <v>37268.21</v>
-      </c>
-      <c r="E25" s="12">
-        <f>+C25-D25</f>
-        <v>908.98999999999796</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="12">
-        <v>43868.94</v>
-      </c>
-      <c r="D26" s="12">
-        <v>40964.01</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" ref="E26:E27" si="6">+C26-D26</f>
-        <v>2904.9300000000003</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="12">
-        <v>46866.71</v>
-      </c>
-      <c r="D27" s="12">
-        <v>43625.22</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="6"/>
-        <v>3241.489999999998</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
